--- a/codes/Consistency/ipl_allrounder_score.xlsx
+++ b/codes/Consistency/ipl_allrounder_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/codes/Consistency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC29D26-AFBD-FE44-92C7-60B3A1D4BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6427CD70-28E0-8148-8E97-8E9A1C930934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="900" windowWidth="14480" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,202 +130,202 @@
     <t>All_Rounder_Consistency</t>
   </si>
   <si>
+    <t>Abdul Samad</t>
+  </si>
+  <si>
+    <t>2020-2024</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>2018-2024</t>
+  </si>
+  <si>
+    <t>AD Russell</t>
+  </si>
+  <si>
+    <t>2012-2024</t>
+  </si>
+  <si>
+    <t>AR Patel</t>
+  </si>
+  <si>
+    <t>2014-2024</t>
+  </si>
+  <si>
+    <t>Arshad Khan</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>AS Roy</t>
+  </si>
+  <si>
+    <t>2019-2024</t>
+  </si>
+  <si>
+    <t>Azmatullah Omarzai</t>
+  </si>
+  <si>
+    <t>2024-2024</t>
+  </si>
+  <si>
+    <t>DG Nalkande</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
+  </si>
+  <si>
+    <t>DJ Hooda</t>
+  </si>
+  <si>
+    <t>2015-2024</t>
+  </si>
+  <si>
+    <t>GJ Maxwell</t>
+  </si>
+  <si>
+    <t>Harpreet Brar</t>
+  </si>
+  <si>
+    <t>HH Pandya</t>
+  </si>
+  <si>
+    <t>HV Patel</t>
+  </si>
+  <si>
+    <t>J Yadav</t>
+  </si>
+  <si>
+    <t>2015-2023</t>
+  </si>
+  <si>
+    <t>K Nitish Kumar Reddy</t>
+  </si>
+  <si>
+    <t>KH Pandya</t>
+  </si>
+  <si>
+    <t>2016-2024</t>
+  </si>
+  <si>
+    <t>KL Nagarkoti</t>
+  </si>
+  <si>
+    <t>2020-2022</t>
+  </si>
+  <si>
+    <t>LS Livingstone</t>
+  </si>
+  <si>
+    <t>M Jansen</t>
+  </si>
+  <si>
+    <t>2021-2024</t>
+  </si>
+  <si>
+    <t>M Shahrukh Khan</t>
+  </si>
+  <si>
+    <t>MJ Santner</t>
+  </si>
+  <si>
+    <t>MK Lomror</t>
+  </si>
+  <si>
+    <t>MM Ali</t>
+  </si>
+  <si>
+    <t>MP Stoinis</t>
+  </si>
+  <si>
+    <t>MR Marsh</t>
+  </si>
+  <si>
+    <t>2010-2024</t>
+  </si>
+  <si>
+    <t>N Rana</t>
+  </si>
+  <si>
+    <t>Naman Dhir</t>
+  </si>
+  <si>
+    <t>NT Tilak Varma</t>
+  </si>
+  <si>
+    <t>P Dubey</t>
+  </si>
+  <si>
+    <t>2020-2023</t>
+  </si>
+  <si>
+    <t>PJ Cummins</t>
+  </si>
+  <si>
+    <t>R Ashwin</t>
+  </si>
+  <si>
+    <t>2009-2024</t>
+  </si>
+  <si>
+    <t>R Parag</t>
+  </si>
+  <si>
+    <t>R Ravindra</t>
+  </si>
+  <si>
+    <t>R Sai Kishore</t>
+  </si>
+  <si>
+    <t>R Shepherd</t>
+  </si>
+  <si>
+    <t>R Tewatia</t>
+  </si>
+  <si>
     <t>RA Jadeja</t>
   </si>
   <si>
     <t>2008-2024</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>GJ Maxwell</t>
-  </si>
-  <si>
-    <t>2012-2024</t>
-  </si>
-  <si>
-    <t>AD Russell</t>
-  </si>
-  <si>
-    <t>N Rana</t>
-  </si>
-  <si>
-    <t>2016-2024</t>
-  </si>
-  <si>
-    <t>HH Pandya</t>
-  </si>
-  <si>
-    <t>2015-2024</t>
-  </si>
-  <si>
-    <t>MP Stoinis</t>
-  </si>
-  <si>
-    <t>AR Patel</t>
-  </si>
-  <si>
-    <t>2014-2024</t>
-  </si>
-  <si>
-    <t>KH Pandya</t>
+    <t>Ramandeep Singh</t>
   </si>
   <si>
     <t>S Dube</t>
   </si>
   <si>
-    <t>2019-2024</t>
-  </si>
-  <si>
-    <t>Abhishek Sharma</t>
-  </si>
-  <si>
-    <t>2018-2024</t>
-  </si>
-  <si>
-    <t>DJ Hooda</t>
-  </si>
-  <si>
-    <t>MM Ali</t>
-  </si>
-  <si>
-    <t>R Ashwin</t>
-  </si>
-  <si>
-    <t>2009-2024</t>
+    <t>Shahbaz Ahmed</t>
+  </si>
+  <si>
+    <t>Shashank Singh</t>
+  </si>
+  <si>
+    <t>SM Curran</t>
+  </si>
+  <si>
+    <t>Swapnil Singh</t>
   </si>
   <si>
     <t>V Shankar</t>
   </si>
   <si>
-    <t>R Parag</t>
-  </si>
-  <si>
-    <t>NT Tilak Varma</t>
-  </si>
-  <si>
-    <t>2022-2024</t>
-  </si>
-  <si>
-    <t>R Tewatia</t>
-  </si>
-  <si>
-    <t>SM Curran</t>
-  </si>
-  <si>
-    <t>LS Livingstone</t>
-  </si>
-  <si>
-    <t>MR Marsh</t>
-  </si>
-  <si>
-    <t>2010-2024</t>
-  </si>
-  <si>
-    <t>PJ Cummins</t>
-  </si>
-  <si>
-    <t>Abdul Samad</t>
-  </si>
-  <si>
-    <t>2020-2024</t>
-  </si>
-  <si>
-    <t>Shahbaz Ahmed</t>
-  </si>
-  <si>
-    <t>HV Patel</t>
-  </si>
-  <si>
-    <t>Shashank Singh</t>
-  </si>
-  <si>
-    <t>M Shahrukh Khan</t>
-  </si>
-  <si>
-    <t>2021-2024</t>
-  </si>
-  <si>
     <t>Washington Sundar</t>
   </si>
   <si>
     <t>2017-2024</t>
   </si>
   <si>
-    <t>MK Lomror</t>
-  </si>
-  <si>
-    <t>K Nitish Kumar Reddy</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
-    <t>Harpreet Brar</t>
-  </si>
-  <si>
     <t>WG Jacks</t>
   </si>
   <si>
-    <t>2024-2024</t>
-  </si>
-  <si>
-    <t>Ramandeep Singh</t>
-  </si>
-  <si>
-    <t>R Ravindra</t>
-  </si>
-  <si>
-    <t>R Sai Kishore</t>
-  </si>
-  <si>
-    <t>R Shepherd</t>
-  </si>
-  <si>
-    <t>Arshad Khan</t>
-  </si>
-  <si>
-    <t>Naman Dhir</t>
-  </si>
-  <si>
-    <t>MJ Santner</t>
-  </si>
-  <si>
-    <t>M Jansen</t>
-  </si>
-  <si>
-    <t>Swapnil Singh</t>
-  </si>
-  <si>
     <t>Yudhvir Singh</t>
-  </si>
-  <si>
-    <t>Azmatullah Omarzai</t>
-  </si>
-  <si>
-    <t>AS Roy</t>
-  </si>
-  <si>
-    <t>J Yadav</t>
-  </si>
-  <si>
-    <t>2015-2023</t>
-  </si>
-  <si>
-    <t>DG Nalkande</t>
-  </si>
-  <si>
-    <t>KL Nagarkoti</t>
-  </si>
-  <si>
-    <t>2020-2022</t>
-  </si>
-  <si>
-    <t>P Dubey</t>
-  </si>
-  <si>
-    <t>2020-2023</t>
   </si>
 </sst>
 </file>
@@ -691,11 +691,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -809,1067 +813,1067 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D2">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>2959</v>
+        <v>800</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>27.39</v>
+        <v>13.33</v>
       </c>
       <c r="I2">
-        <v>2280</v>
+        <v>675</v>
       </c>
       <c r="J2">
-        <v>129.78</v>
+        <v>118.51</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>61</v>
+      </c>
+      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>212</v>
+      </c>
+      <c r="Q2">
+        <v>208</v>
+      </c>
+      <c r="R2">
+        <v>754</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>5369</v>
+      </c>
+      <c r="U2">
+        <v>180</v>
+      </c>
+      <c r="V2">
+        <v>29.82</v>
+      </c>
+      <c r="W2">
+        <v>7.12</v>
+      </c>
+      <c r="X2">
+        <v>25.1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>8</v>
-      </c>
-      <c r="N2">
-        <v>215</v>
-      </c>
-      <c r="O2">
-        <v>107</v>
-      </c>
-      <c r="P2">
-        <v>240</v>
-      </c>
-      <c r="Q2">
-        <v>211</v>
-      </c>
-      <c r="R2">
-        <v>638.1</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>4864</v>
-      </c>
-      <c r="U2">
-        <v>160</v>
-      </c>
-      <c r="V2">
-        <v>30.4</v>
-      </c>
-      <c r="W2">
-        <v>7.62</v>
-      </c>
-      <c r="X2">
-        <v>23.9</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>6</v>
       </c>
       <c r="AB2" t="s">
         <v>38</v>
       </c>
       <c r="AC2">
-        <v>0.76666666666666672</v>
+        <v>0.44339622641509441</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="AF2">
-        <v>0.87916666666666665</v>
+        <v>0.98113207547169812</v>
       </c>
       <c r="AG2">
-        <v>4.25</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>287.65466572266661</v>
+        <v>31.610814603773591</v>
       </c>
       <c r="AI2">
-        <v>23.941733062541669</v>
+        <v>118.5234394339623</v>
       </c>
       <c r="AJ2">
-        <v>155.79819939260409</v>
+        <v>75.067127018867922</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>2771</v>
+        <v>2959</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H3">
-        <v>24.74</v>
+        <v>27.39</v>
       </c>
       <c r="I3">
-        <v>1768</v>
+        <v>2280</v>
       </c>
       <c r="J3">
-        <v>156.72999999999999</v>
+        <v>129.78</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="O3">
+        <v>107</v>
+      </c>
+      <c r="P3">
+        <v>240</v>
+      </c>
+      <c r="Q3">
+        <v>211</v>
+      </c>
+      <c r="R3">
+        <v>638.1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>4864</v>
+      </c>
+      <c r="U3">
         <v>160</v>
       </c>
-      <c r="P3">
-        <v>134</v>
-      </c>
-      <c r="Q3">
-        <v>79</v>
-      </c>
-      <c r="R3">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1303</v>
-      </c>
-      <c r="U3">
-        <v>37</v>
-      </c>
       <c r="V3">
-        <v>35.21</v>
+        <v>30.4</v>
       </c>
       <c r="W3">
-        <v>8.2799999999999994</v>
+        <v>7.62</v>
       </c>
       <c r="X3">
-        <v>25.5</v>
+        <v>23.9</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="s">
         <v>38</v>
       </c>
       <c r="AC3">
-        <v>0.96268656716417911</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="AD3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="AF3">
-        <v>0.58955223880597019</v>
+        <v>0.87916666666666665</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH3">
-        <v>275.650444852791</v>
+        <v>44.325014000000003</v>
       </c>
       <c r="AI3">
-        <v>1.141986151906716</v>
+        <v>101.9087158333333</v>
       </c>
       <c r="AJ3">
-        <v>138.39621550234889</v>
+        <v>73.116864916666671</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D4">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>2484</v>
+        <v>1653</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H4">
-        <v>29.22</v>
+        <v>21.46</v>
       </c>
       <c r="I4">
-        <v>1420</v>
+        <v>1263</v>
       </c>
       <c r="J4">
-        <v>174.92</v>
+        <v>130.87</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="O4">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="P4">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="Q4">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="R4">
-        <v>282.5</v>
+        <v>516.29999999999995</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2646</v>
+        <v>3758</v>
       </c>
       <c r="U4">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="V4">
-        <v>23</v>
+        <v>30.55</v>
       </c>
       <c r="W4">
-        <v>9.35</v>
+        <v>7.27</v>
       </c>
       <c r="X4">
-        <v>14.7</v>
+        <v>25.1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="s">
         <v>38</v>
       </c>
       <c r="AC4">
-        <v>0.82677165354330706</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="AD4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="AF4">
-        <v>0.88188976377952755</v>
+        <v>0.98666666666666669</v>
       </c>
       <c r="AG4">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>253.83015779744881</v>
+        <v>36.615541999999998</v>
       </c>
       <c r="AI4">
-        <v>16.658095529875979</v>
+        <v>79.57651333333331</v>
       </c>
       <c r="AJ4">
-        <v>135.2441266636624</v>
+        <v>58.096027666666657</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
       <c r="C5">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2636</v>
+        <v>2484</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5">
-        <v>28.65</v>
+        <v>29.22</v>
       </c>
       <c r="I5">
-        <v>1952</v>
+        <v>1420</v>
       </c>
       <c r="J5">
-        <v>135.04</v>
+        <v>174.92</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="O5">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="P5">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="R5">
-        <v>30</v>
+        <v>282.5</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>252</v>
+        <v>2646</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="V5">
-        <v>25.2</v>
+        <v>23</v>
       </c>
       <c r="W5">
-        <v>8.4</v>
+        <v>9.35</v>
       </c>
       <c r="X5">
-        <v>18</v>
+        <v>14.7</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
         <v>38</v>
       </c>
       <c r="AC5">
-        <v>0.94392523364485981</v>
+        <v>0.82677165354330706</v>
       </c>
       <c r="AD5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE5">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="AF5">
-        <v>0.22429906542056069</v>
+        <v>0.88188976377952755</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AH5">
-        <v>260.42190240467289</v>
+        <v>45.61027070866141</v>
       </c>
       <c r="AI5">
-        <v>-2.40982566864486</v>
+        <v>56.654859606299212</v>
       </c>
       <c r="AJ5">
-        <v>129.006038368014</v>
+        <v>51.132565157480308</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>2525</v>
+        <v>249</v>
       </c>
       <c r="G6">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>28.69</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="I6">
-        <v>1734</v>
+        <v>203</v>
       </c>
       <c r="J6">
-        <v>145.61000000000001</v>
+        <v>122.66</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="P6">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="Q6">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="R6">
-        <v>236.2</v>
+        <v>360.1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2150</v>
+        <v>3149</v>
       </c>
       <c r="U6">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="V6">
-        <v>33.590000000000003</v>
+        <v>23.32</v>
       </c>
       <c r="W6">
-        <v>9.09</v>
+        <v>8.74</v>
       </c>
       <c r="X6">
-        <v>22.1</v>
+        <v>16</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="s">
         <v>38</v>
       </c>
       <c r="AC6">
-        <v>0.93430656934306566</v>
+        <v>0.39622641509433959</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="AF6">
-        <v>0.67883211678832112</v>
+        <v>0.97169811320754718</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AH6">
-        <v>251.82279621151091</v>
+        <v>28.3854477735849</v>
       </c>
       <c r="AI6">
-        <v>6.0701370576514568</v>
+        <v>69.877364150943393</v>
       </c>
       <c r="AJ6">
-        <v>128.94646663458121</v>
+        <v>49.131405962264147</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>1866</v>
+        <v>1647</v>
       </c>
       <c r="G7">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="H7">
-        <v>28.27</v>
+        <v>22.56</v>
       </c>
       <c r="I7">
-        <v>1314</v>
+        <v>1240</v>
       </c>
       <c r="J7">
-        <v>142</v>
+        <v>132.82</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O7">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="P7">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="R7">
-        <v>133.5</v>
+        <v>353.4</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1274</v>
+        <v>2606</v>
       </c>
       <c r="U7">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="V7">
-        <v>29.62</v>
+        <v>34.28</v>
       </c>
       <c r="W7">
-        <v>9.51</v>
+        <v>7.36</v>
       </c>
       <c r="X7">
-        <v>18.600000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="s">
         <v>38</v>
       </c>
       <c r="AC7">
-        <v>0.91666666666666663</v>
+        <v>0.87401574803149606</v>
       </c>
       <c r="AD7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="AF7">
-        <v>0.64583333333333337</v>
+        <v>0.92125984251968507</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>190.16102612966671</v>
+        <v>37.287105606299207</v>
       </c>
       <c r="AI7">
-        <v>2.8431264349583332</v>
+        <v>50.048103070866141</v>
       </c>
       <c r="AJ7">
-        <v>96.502076282312501</v>
+        <v>43.667604338582677</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D8">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>1653</v>
+        <v>2525</v>
       </c>
       <c r="G8">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H8">
-        <v>21.46</v>
+        <v>28.69</v>
       </c>
       <c r="I8">
-        <v>1263</v>
+        <v>1734</v>
       </c>
       <c r="J8">
-        <v>130.87</v>
+        <v>145.61000000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="O8">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="P8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Q8">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="R8">
-        <v>516.29999999999995</v>
+        <v>236.2</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3758</v>
+        <v>2150</v>
       </c>
       <c r="U8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="V8">
-        <v>30.55</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="W8">
-        <v>7.27</v>
+        <v>9.09</v>
       </c>
       <c r="X8">
-        <v>25.1</v>
+        <v>22.1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="s">
         <v>38</v>
       </c>
       <c r="AC8">
-        <v>0.7533333333333333</v>
+        <v>0.93430656934306566</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE8">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="AF8">
-        <v>0.98666666666666669</v>
+        <v>0.67883211678832112</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>167.61831419433329</v>
+        <v>42.894462510948912</v>
       </c>
       <c r="AI8">
-        <v>17.278229649416669</v>
+        <v>35.570863941605843</v>
       </c>
       <c r="AJ8">
-        <v>92.448271921874976</v>
+        <v>39.232663226277367</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>1647</v>
+        <v>515</v>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>22.56</v>
+        <v>19.8</v>
       </c>
       <c r="I9">
-        <v>1240</v>
+        <v>344</v>
       </c>
       <c r="J9">
-        <v>132.82</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="O9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="P9">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="Q9">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="R9">
-        <v>353.4</v>
+        <v>219.5</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>2606</v>
+        <v>1923</v>
       </c>
       <c r="U9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V9">
-        <v>34.28</v>
+        <v>30.52</v>
       </c>
       <c r="W9">
-        <v>7.36</v>
+        <v>8.74</v>
       </c>
       <c r="X9">
-        <v>27.9</v>
+        <v>20.9</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="s">
         <v>38</v>
       </c>
       <c r="AC9">
-        <v>0.87401574803149606</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="AF9">
-        <v>0.92125984251968507</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>168.85379389541731</v>
+        <v>36.606341724137927</v>
       </c>
       <c r="AI9">
-        <v>8.3390740351673216</v>
+        <v>34.338169999999998</v>
       </c>
       <c r="AJ9">
-        <v>88.59643396529232</v>
+        <v>35.472255862068963</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>1502</v>
+        <v>883</v>
       </c>
       <c r="G10">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>30.04</v>
+        <v>25.22</v>
       </c>
       <c r="I10">
-        <v>1024</v>
+        <v>647</v>
       </c>
       <c r="J10">
-        <v>146.66999999999999</v>
+        <v>136.47</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O10">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="P10">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="R10">
-        <v>18.399999999999999</v>
+        <v>196.5</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>180</v>
+        <v>1900</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="V10">
-        <v>36</v>
+        <v>32.75</v>
       </c>
       <c r="W10">
-        <v>9.64</v>
+        <v>9.65</v>
       </c>
       <c r="X10">
-        <v>22.4</v>
+        <v>20.3</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="s">
         <v>38</v>
       </c>
       <c r="AC10">
-        <v>0.93846153846153846</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="AD10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE10">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="AF10">
-        <v>0.2153846153846154</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>156.37751486484609</v>
+        <v>35.000992881355927</v>
       </c>
       <c r="AI10">
-        <v>-4.8634275300000001</v>
+        <v>30.276404406779658</v>
       </c>
       <c r="AJ10">
-        <v>75.757043667423076</v>
+        <v>32.638698644067787</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>1377</v>
+        <v>2771</v>
       </c>
       <c r="G11">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H11">
+        <v>24.74</v>
+      </c>
+      <c r="I11">
+        <v>1768</v>
+      </c>
+      <c r="J11">
+        <v>156.72999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>232</v>
+      </c>
+      <c r="O11">
+        <v>160</v>
+      </c>
+      <c r="P11">
+        <v>134</v>
+      </c>
+      <c r="Q11">
+        <v>79</v>
+      </c>
+      <c r="R11">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1303</v>
+      </c>
+      <c r="U11">
+        <v>37</v>
+      </c>
+      <c r="V11">
+        <v>35.21</v>
+      </c>
+      <c r="W11">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="X11">
         <v>25.5</v>
       </c>
-      <c r="I11">
-        <v>887</v>
-      </c>
-      <c r="J11">
-        <v>155.24</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>128</v>
-      </c>
-      <c r="O11">
-        <v>73</v>
-      </c>
-      <c r="P11">
-        <v>63</v>
-      </c>
-      <c r="Q11">
-        <v>26</v>
-      </c>
-      <c r="R11">
-        <v>45</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>389</v>
-      </c>
-      <c r="U11">
-        <v>11</v>
-      </c>
-      <c r="V11">
-        <v>35.36</v>
-      </c>
-      <c r="W11">
-        <v>8.64</v>
-      </c>
-      <c r="X11">
-        <v>24.5</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
@@ -1877,111 +1881,111 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="s">
         <v>38</v>
       </c>
       <c r="AC11">
-        <v>0.96825396825396826</v>
+        <v>0.96268656716417911</v>
       </c>
       <c r="AD11">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AE11">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="AF11">
-        <v>0.41269841269841268</v>
+        <v>0.58955223880597019</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>147.16001941777779</v>
+        <v>41.176473104477608</v>
       </c>
       <c r="AI11">
-        <v>-3.5881561250992058</v>
+        <v>20.181267164179101</v>
       </c>
       <c r="AJ11">
-        <v>71.785931646339279</v>
+        <v>30.67887013432836</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>1866</v>
+      </c>
+      <c r="G12">
+        <v>124</v>
+      </c>
+      <c r="H12">
+        <v>28.27</v>
+      </c>
+      <c r="I12">
+        <v>1314</v>
+      </c>
+      <c r="J12">
+        <v>142</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>91</v>
+      </c>
+      <c r="P12">
         <v>96</v>
       </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>1465</v>
-      </c>
-      <c r="G12">
-        <v>64</v>
-      </c>
-      <c r="H12">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="I12">
-        <v>1131</v>
-      </c>
-      <c r="J12">
-        <v>129.53</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>96</v>
-      </c>
-      <c r="O12">
-        <v>61</v>
-      </c>
-      <c r="P12">
-        <v>118</v>
-      </c>
       <c r="Q12">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="R12">
-        <v>62.1</v>
+        <v>133.5</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>531</v>
+        <v>1274</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="V12">
-        <v>53.1</v>
+        <v>29.62</v>
       </c>
       <c r="W12">
-        <v>8.5399999999999991</v>
+        <v>9.51</v>
       </c>
       <c r="X12">
-        <v>37.299999999999997</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1993,212 +1997,212 @@
         <v>38</v>
       </c>
       <c r="AC12">
-        <v>0.81355932203389836</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AD12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE12">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="AF12">
-        <v>0.27966101694915252</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>148.49318739950851</v>
+        <v>39.012602999999999</v>
       </c>
       <c r="AI12">
-        <v>-6.1316911394788143</v>
+        <v>20.352559166666669</v>
       </c>
       <c r="AJ12">
-        <v>71.18074813001482</v>
+        <v>29.682581083333329</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>1013</v>
+      </c>
+      <c r="G13">
         <v>53</v>
       </c>
-      <c r="C13">
-        <v>67</v>
-      </c>
-      <c r="D13">
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>1162</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>25.32</v>
+      </c>
+      <c r="I13">
+        <v>752</v>
+      </c>
+      <c r="J13">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>84</v>
+      </c>
+      <c r="O13">
+        <v>47</v>
+      </c>
+      <c r="P13">
         <v>93</v>
-      </c>
-      <c r="H13">
-        <v>22.78</v>
-      </c>
-      <c r="I13">
-        <v>821</v>
-      </c>
-      <c r="J13">
-        <v>141.53</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>95</v>
-      </c>
-      <c r="O13">
-        <v>67</v>
-      </c>
-      <c r="P13">
-        <v>67</v>
       </c>
       <c r="Q13">
         <v>52</v>
       </c>
       <c r="R13">
-        <v>126.2</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>893</v>
+        <v>1111</v>
       </c>
       <c r="U13">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V13">
-        <v>25.51</v>
+        <v>34.71</v>
       </c>
       <c r="W13">
-        <v>7.06</v>
+        <v>7.9</v>
       </c>
       <c r="X13">
-        <v>21.6</v>
+        <v>26.3</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="s">
         <v>38</v>
       </c>
       <c r="AC13">
-        <v>0.85074626865671643</v>
+        <v>0.69892473118279574</v>
       </c>
       <c r="AD13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AF13">
-        <v>0.77611940298507465</v>
+        <v>0.55913978494623651</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>124.84359730416411</v>
+        <v>36.224745419354839</v>
       </c>
       <c r="AI13">
-        <v>2.225642218858209</v>
+        <v>17.21638086021505</v>
       </c>
       <c r="AJ13">
-        <v>63.534619761511181</v>
+        <v>26.72056313978495</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>67</v>
+      </c>
+      <c r="D14">
         <v>57</v>
       </c>
-      <c r="C14">
-        <v>212</v>
-      </c>
-      <c r="D14">
-        <v>94</v>
-      </c>
       <c r="E14">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>800</v>
+        <v>1162</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H14">
-        <v>13.33</v>
+        <v>22.78</v>
       </c>
       <c r="I14">
-        <v>675</v>
+        <v>821</v>
       </c>
       <c r="J14">
-        <v>118.51</v>
+        <v>141.53</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="O14">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="P14">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="Q14">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="R14">
-        <v>754</v>
+        <v>126.2</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>5369</v>
+        <v>893</v>
       </c>
       <c r="U14">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="V14">
-        <v>29.82</v>
+        <v>25.51</v>
       </c>
       <c r="W14">
-        <v>7.12</v>
+        <v>7.06</v>
       </c>
       <c r="X14">
-        <v>25.1</v>
+        <v>21.6</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -2207,108 +2211,108 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="s">
         <v>38</v>
       </c>
       <c r="AC14">
-        <v>0.44339622641509441</v>
+        <v>0.85074626865671643</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE14">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="AF14">
-        <v>0.98113207547169812</v>
+        <v>0.77611940298507465</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>88.651594225679247</v>
+        <v>34.481196417910454</v>
       </c>
       <c r="AI14">
-        <v>27.591033192278299</v>
+        <v>18.142212089552238</v>
       </c>
       <c r="AJ14">
-        <v>58.121313708978782</v>
+        <v>26.311704253731339</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>378</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>13.5</v>
+      </c>
+      <c r="I15">
+        <v>325</v>
+      </c>
+      <c r="J15">
+        <v>116.3</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>32</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>60</v>
+      </c>
+      <c r="Q15">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>1115</v>
-      </c>
-      <c r="G15">
-        <v>63</v>
-      </c>
-      <c r="H15">
-        <v>25.34</v>
-      </c>
-      <c r="I15">
-        <v>859</v>
-      </c>
-      <c r="J15">
-        <v>129.80000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>80</v>
-      </c>
-      <c r="O15">
-        <v>45</v>
-      </c>
-      <c r="P15">
-        <v>72</v>
-      </c>
-      <c r="Q15">
-        <v>22</v>
-      </c>
       <c r="R15">
-        <v>39.4</v>
+        <v>175.4</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>344</v>
+        <v>1325</v>
       </c>
       <c r="U15">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="V15">
-        <v>38.22</v>
+        <v>35.81</v>
       </c>
       <c r="W15">
-        <v>8.67</v>
+        <v>7.54</v>
       </c>
       <c r="X15">
-        <v>26.4</v>
+        <v>28.4</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2317,548 +2321,548 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="s">
         <v>38</v>
       </c>
       <c r="AC15">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AD15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="AF15">
-        <v>0.30555555555555558</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>118.39060177933329</v>
+        <v>27.77608</v>
       </c>
       <c r="AI15">
-        <v>-4.339419362777778</v>
+        <v>21.936403333333331</v>
       </c>
       <c r="AJ15">
-        <v>57.025591208277767</v>
+        <v>24.856241666666669</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>216.66</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>10</v>
       </c>
-      <c r="F16">
-        <v>1173</v>
-      </c>
-      <c r="G16">
-        <v>84</v>
-      </c>
-      <c r="H16">
-        <v>24.43</v>
-      </c>
-      <c r="I16">
-        <v>868</v>
-      </c>
-      <c r="J16">
-        <v>135.13</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>84</v>
-      </c>
-      <c r="O16">
-        <v>60</v>
-      </c>
-      <c r="P16">
-        <v>70</v>
-      </c>
       <c r="Q16">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>29.1</v>
+        <v>31</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="V16">
-        <v>76.75</v>
+        <v>19.84</v>
       </c>
       <c r="W16">
-        <v>10.52</v>
+        <v>8.32</v>
       </c>
       <c r="X16">
-        <v>43.7</v>
+        <v>14.3</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="s">
         <v>38</v>
       </c>
       <c r="AC16">
-        <v>0.82857142857142863</v>
+        <v>0.2</v>
       </c>
       <c r="AD16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>124.35417283699999</v>
+        <v>45.883595999999997</v>
       </c>
       <c r="AI16">
-        <v>-10.54118313625</v>
+        <v>3.3611900000000001</v>
       </c>
       <c r="AJ16">
-        <v>56.906494850374997</v>
+        <v>24.622392999999999</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>665</v>
+      </c>
+      <c r="G17">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>19.55</v>
+      </c>
+      <c r="I17">
+        <v>521</v>
+      </c>
+      <c r="J17">
+        <v>127.63</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>48</v>
+      </c>
+      <c r="O17">
         <v>38</v>
       </c>
-      <c r="D17">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>1156</v>
-      </c>
-      <c r="G17">
-        <v>84</v>
-      </c>
-      <c r="H17">
-        <v>39.86</v>
-      </c>
-      <c r="I17">
-        <v>790</v>
-      </c>
-      <c r="J17">
-        <v>146.32</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>90</v>
-      </c>
-      <c r="O17">
-        <v>58</v>
-      </c>
       <c r="P17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="R17">
-        <v>3.4</v>
+        <v>93.2</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>28</v>
+        <v>795</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="V17">
-        <v>100</v>
+        <v>21.48</v>
       </c>
       <c r="W17">
-        <v>7.63</v>
+        <v>8.51</v>
       </c>
       <c r="X17">
-        <v>100</v>
+        <v>15.1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="s">
         <v>38</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AD17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="AF17">
-        <v>0.10526315789473679</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>126.039804604</v>
+        <v>29.900468</v>
       </c>
       <c r="AI17">
-        <v>-14.103131058763161</v>
+        <v>16.099391904761909</v>
       </c>
       <c r="AJ17">
-        <v>55.968336772618407</v>
+        <v>22.999929952380949</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>233</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>21.18</v>
+      </c>
+      <c r="I18">
+        <v>190</v>
+      </c>
+      <c r="J18">
+        <v>122.63</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>41</v>
+      </c>
+      <c r="Q18">
+        <v>39</v>
+      </c>
+      <c r="R18">
+        <v>113.1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>895</v>
+      </c>
+      <c r="U18">
         <v>25</v>
       </c>
-      <c r="F18">
-        <v>1013</v>
-      </c>
-      <c r="G18">
-        <v>53</v>
-      </c>
-      <c r="H18">
-        <v>25.32</v>
-      </c>
-      <c r="I18">
-        <v>752</v>
-      </c>
-      <c r="J18">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>84</v>
-      </c>
-      <c r="O18">
-        <v>47</v>
-      </c>
-      <c r="P18">
-        <v>93</v>
-      </c>
-      <c r="Q18">
-        <v>52</v>
-      </c>
-      <c r="R18">
-        <v>140.30000000000001</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1111</v>
-      </c>
-      <c r="U18">
-        <v>32</v>
-      </c>
       <c r="V18">
-        <v>34.71</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="W18">
         <v>7.9</v>
       </c>
       <c r="X18">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="s">
         <v>38</v>
       </c>
       <c r="AC18">
-        <v>0.69892473118279574</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="AF18">
-        <v>0.55913978494623651</v>
+        <v>0.95121951219512191</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>111.4797692536989</v>
+        <v>30.731714634146339</v>
       </c>
       <c r="AI18">
-        <v>0.32823501648655828</v>
+        <v>12.655005609756101</v>
       </c>
       <c r="AJ18">
-        <v>55.904002135092732</v>
+        <v>21.693360121951219</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>883</v>
+        <v>939</v>
       </c>
       <c r="G19">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H19">
-        <v>25.22</v>
+        <v>28.45</v>
       </c>
       <c r="I19">
-        <v>647</v>
+        <v>578</v>
       </c>
       <c r="J19">
-        <v>136.47</v>
+        <v>162.44999999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>66</v>
+      </c>
+      <c r="O19">
+        <v>66</v>
+      </c>
+      <c r="P19">
+        <v>39</v>
+      </c>
+      <c r="Q19">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>43</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>393</v>
+      </c>
+      <c r="U19">
+        <v>11</v>
+      </c>
+      <c r="V19">
+        <v>35.72</v>
+      </c>
+      <c r="W19">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="X19">
+        <v>23.4</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>4</v>
-      </c>
-      <c r="N19">
-        <v>74</v>
-      </c>
-      <c r="O19">
-        <v>37</v>
-      </c>
-      <c r="P19">
-        <v>59</v>
-      </c>
-      <c r="Q19">
-        <v>58</v>
-      </c>
-      <c r="R19">
-        <v>196.5</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>1900</v>
-      </c>
-      <c r="U19">
-        <v>58</v>
-      </c>
-      <c r="V19">
-        <v>32.75</v>
-      </c>
-      <c r="W19">
-        <v>9.65</v>
-      </c>
-      <c r="X19">
-        <v>20.3</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>6</v>
       </c>
       <c r="AB19" t="s">
         <v>38</v>
       </c>
       <c r="AC19">
-        <v>0.81355932203389836</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="AF19">
-        <v>0.98305084745762716</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>98.820680893508438</v>
+        <v>39.958799999999997</v>
       </c>
       <c r="AI19">
-        <v>5.1199584633093203</v>
+        <v>1.7443789743589739</v>
       </c>
       <c r="AJ19">
-        <v>51.970319678408877</v>
+        <v>20.851589487179488</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>939</v>
+        <v>1377</v>
       </c>
       <c r="G20">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H20">
-        <v>28.45</v>
+        <v>25.5</v>
       </c>
       <c r="I20">
-        <v>578</v>
+        <v>887</v>
       </c>
       <c r="J20">
-        <v>162.44999999999999</v>
+        <v>155.24</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="O20">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P20">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R20">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="U20">
         <v>11</v>
       </c>
       <c r="V20">
-        <v>35.72</v>
+        <v>35.36</v>
       </c>
       <c r="W20">
-        <v>9.1300000000000008</v>
+        <v>8.64</v>
       </c>
       <c r="X20">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2867,328 +2871,328 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="s">
         <v>38</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.96825396825396826</v>
       </c>
       <c r="AD20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="AF20">
-        <v>0.5641025641025641</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>107.58232250499999</v>
+        <v>38.254337333333332</v>
       </c>
       <c r="AI20">
-        <v>-3.6691551086666672</v>
+        <v>2.0153992063492061</v>
       </c>
       <c r="AJ20">
-        <v>51.956583698166661</v>
+        <v>20.13486826984127</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>665</v>
+        <v>170</v>
       </c>
       <c r="G21">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>19.55</v>
+        <v>28.33</v>
       </c>
       <c r="I21">
-        <v>521</v>
+        <v>102</v>
       </c>
       <c r="J21">
-        <v>127.63</v>
+        <v>166.66</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="O21">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="P21">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>93.2</v>
+        <v>6.4</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>795</v>
+        <v>63</v>
       </c>
       <c r="U21">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>21.48</v>
+        <v>10.5</v>
       </c>
       <c r="W21">
-        <v>8.51</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="X21">
-        <v>15.1</v>
+        <v>6.6</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="s">
         <v>38</v>
       </c>
       <c r="AC21">
-        <v>0.8571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="AF21">
-        <v>0.80952380952380953</v>
+        <v>0.2</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>76.532539374999985</v>
+        <v>39.889243</v>
       </c>
       <c r="AI21">
-        <v>3.0314559254880939</v>
+        <v>-0.28111999999999998</v>
       </c>
       <c r="AJ21">
-        <v>39.781997650244037</v>
+        <v>19.8040615</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>515</v>
+        <v>2636</v>
       </c>
       <c r="G22">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H22">
-        <v>19.8</v>
+        <v>28.65</v>
       </c>
       <c r="I22">
-        <v>344</v>
+        <v>1952</v>
       </c>
       <c r="J22">
-        <v>149.69999999999999</v>
+        <v>135.04</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>234</v>
+      </c>
+      <c r="O22">
+        <v>132</v>
+      </c>
+      <c r="P22">
+        <v>107</v>
+      </c>
+      <c r="Q22">
+        <v>24</v>
+      </c>
+      <c r="R22">
+        <v>30</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>252</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>25.2</v>
+      </c>
+      <c r="W22">
+        <v>8.4</v>
+      </c>
+      <c r="X22">
+        <v>18</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
         <v>4</v>
-      </c>
-      <c r="N22">
-        <v>33</v>
-      </c>
-      <c r="O22">
-        <v>34</v>
-      </c>
-      <c r="P22">
-        <v>58</v>
-      </c>
-      <c r="Q22">
-        <v>58</v>
-      </c>
-      <c r="R22">
-        <v>219.5</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>1923</v>
-      </c>
-      <c r="U22">
-        <v>63</v>
-      </c>
-      <c r="V22">
-        <v>30.52</v>
-      </c>
-      <c r="W22">
-        <v>8.74</v>
-      </c>
-      <c r="X22">
-        <v>20.9</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>8</v>
       </c>
       <c r="AB22" t="s">
         <v>38</v>
       </c>
       <c r="AC22">
-        <v>0.7068965517241379</v>
+        <v>0.94392523364485981</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AE22">
-        <v>67</v>
+        <v>366</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>0.22429906542056069</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>66.659530251034482</v>
+        <v>36.78271502803738</v>
       </c>
       <c r="AI22">
-        <v>6.4498550772499978</v>
+        <v>1.536895327102803</v>
       </c>
       <c r="AJ22">
-        <v>36.554692664142237</v>
+        <v>19.159805177570089</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H23">
-        <v>19.23</v>
+        <v>19.14</v>
       </c>
       <c r="I23">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="J23">
-        <v>146.07</v>
+        <v>121.81</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O23">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P23">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>89.3</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>113</v>
+        <v>837</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="V23">
-        <v>56.5</v>
+        <v>39.85</v>
       </c>
       <c r="W23">
-        <v>12.55</v>
+        <v>9.35</v>
       </c>
       <c r="X23">
-        <v>27</v>
+        <v>25.5</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3197,108 +3201,108 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="s">
         <v>38</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="AF23">
-        <v>0.1</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>70.956545386999991</v>
+        <v>29.69228290909091</v>
       </c>
       <c r="AI23">
-        <v>-8.4292855400000004</v>
+        <v>8.4866727272727278</v>
       </c>
       <c r="AJ23">
-        <v>31.263629923499991</v>
+        <v>19.08947781818182</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>536</v>
+        <v>423</v>
       </c>
       <c r="G24">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H24">
-        <v>19.14</v>
+        <v>35.25</v>
       </c>
       <c r="I24">
-        <v>440</v>
+        <v>262</v>
       </c>
       <c r="J24">
-        <v>121.81</v>
+        <v>161.44999999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O24">
         <v>25</v>
       </c>
       <c r="P24">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>89.3</v>
+        <v>3</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>837</v>
+        <v>25</v>
       </c>
       <c r="U24">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>39.85</v>
+        <v>25</v>
       </c>
       <c r="W24">
-        <v>9.35</v>
+        <v>8.33</v>
       </c>
       <c r="X24">
-        <v>25.5</v>
+        <v>18</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3313,212 +3317,212 @@
         <v>38</v>
       </c>
       <c r="AC24">
-        <v>0.67272727272727273</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AF24">
-        <v>0.76363636363636367</v>
+        <v>0.125</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>63.582817131909088</v>
+        <v>40.409057500000003</v>
       </c>
       <c r="AI24">
-        <v>-2.438548732159092</v>
+        <v>-3.6222750000000001</v>
       </c>
       <c r="AJ24">
-        <v>30.572134199874998</v>
+        <v>18.393391250000001</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G25">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>9.2200000000000006</v>
+        <v>32.85</v>
       </c>
       <c r="I25">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="J25">
-        <v>122.66</v>
+        <v>175.57</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>16</v>
       </c>
       <c r="O25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P25">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="Q25">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>360.1</v>
+        <v>9</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>100</v>
+      </c>
+      <c r="U25">
         <v>2</v>
       </c>
-      <c r="T25">
-        <v>3149</v>
-      </c>
-      <c r="U25">
-        <v>135</v>
-      </c>
       <c r="V25">
-        <v>23.32</v>
+        <v>50</v>
       </c>
       <c r="W25">
-        <v>8.74</v>
+        <v>11.11</v>
       </c>
       <c r="X25">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB25" t="s">
         <v>38</v>
       </c>
       <c r="AC25">
-        <v>0.39622641509433959</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AF25">
-        <v>0.97169811320754718</v>
+        <v>0.625</v>
       </c>
       <c r="AG25">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>37.978769957245277</v>
+        <v>42.073512000000001</v>
       </c>
       <c r="AI25">
-        <v>20.298009047292449</v>
+        <v>-6.0108750000000004</v>
       </c>
       <c r="AJ25">
-        <v>29.138389502268868</v>
+        <v>18.031318500000001</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
         <v>61</v>
       </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
       <c r="E26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>423</v>
+        <v>1502</v>
       </c>
       <c r="G26">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H26">
-        <v>35.25</v>
+        <v>30.04</v>
       </c>
       <c r="I26">
-        <v>262</v>
+        <v>1024</v>
       </c>
       <c r="J26">
-        <v>161.44999999999999</v>
+        <v>146.66999999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O26">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="P26">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W26">
-        <v>8.33</v>
+        <v>9.64</v>
       </c>
       <c r="X26">
-        <v>18</v>
+        <v>22.4</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3527,108 +3531,108 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB26" t="s">
         <v>38</v>
       </c>
       <c r="AC26">
-        <v>0.79166666666666663</v>
+        <v>0.93846153846153846</v>
       </c>
       <c r="AD26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE26">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="AF26">
-        <v>0.125</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>60.623993529166647</v>
+        <v>38.363177230769232</v>
       </c>
       <c r="AI26">
-        <v>-3.989646677250001</v>
+        <v>-2.477233846153847</v>
       </c>
       <c r="AJ26">
-        <v>28.31717342595833</v>
+        <v>17.94297169230769</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>115</v>
+      </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>63</v>
+      </c>
+      <c r="J27">
+        <v>182.53</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>553</v>
-      </c>
-      <c r="G27">
-        <v>58</v>
-      </c>
-      <c r="H27">
-        <v>19.75</v>
-      </c>
-      <c r="I27">
-        <v>391</v>
-      </c>
-      <c r="J27">
-        <v>141.43</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>35</v>
-      </c>
-      <c r="O27">
-        <v>37</v>
-      </c>
       <c r="P27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>100</v>
+        <v>64.25</v>
       </c>
       <c r="W27">
-        <v>7.5</v>
+        <v>12.23</v>
       </c>
       <c r="X27">
-        <v>100</v>
+        <v>31.5</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3637,108 +3641,108 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="s">
         <v>38</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="AF27">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>68.59375039999999</v>
+        <v>41.548858000000003</v>
       </c>
       <c r="AI27">
-        <v>-14.095687222500001</v>
+        <v>-6.1096000000000004</v>
       </c>
       <c r="AJ27">
-        <v>27.24903158875</v>
+        <v>17.719629000000001</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C28">
+        <v>72</v>
+      </c>
+      <c r="D28">
         <v>60</v>
       </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
       <c r="E28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>378</v>
+        <v>1115</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H28">
-        <v>13.5</v>
+        <v>25.34</v>
       </c>
       <c r="I28">
-        <v>325</v>
+        <v>859</v>
       </c>
       <c r="J28">
-        <v>116.3</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O28">
+        <v>45</v>
+      </c>
+      <c r="P28">
+        <v>72</v>
+      </c>
+      <c r="Q28">
+        <v>22</v>
+      </c>
+      <c r="R28">
+        <v>39.4</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>344</v>
+      </c>
+      <c r="U28">
         <v>9</v>
       </c>
-      <c r="P28">
-        <v>60</v>
-      </c>
-      <c r="Q28">
-        <v>58</v>
-      </c>
-      <c r="R28">
-        <v>175.4</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>1325</v>
-      </c>
-      <c r="U28">
-        <v>37</v>
-      </c>
       <c r="V28">
-        <v>35.81</v>
+        <v>38.22</v>
       </c>
       <c r="W28">
-        <v>7.54</v>
+        <v>8.67</v>
       </c>
       <c r="X28">
-        <v>28.4</v>
+        <v>26.4</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3747,108 +3751,108 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB28" t="s">
         <v>38</v>
       </c>
       <c r="AC28">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE28">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="AF28">
-        <v>0.96666666666666667</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>48.840118016666651</v>
+        <v>34.490906000000003</v>
       </c>
       <c r="AI28">
-        <v>1.1760915421666649</v>
+        <v>0.54654777777777785</v>
       </c>
       <c r="AJ28">
-        <v>25.008104779416659</v>
+        <v>17.518726888888889</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>527</v>
+        <v>1465</v>
       </c>
       <c r="G29">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H29">
-        <v>18.170000000000002</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="I29">
-        <v>373</v>
+        <v>1131</v>
       </c>
       <c r="J29">
-        <v>141.28</v>
+        <v>129.53</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29">
+        <v>96</v>
+      </c>
+      <c r="O29">
+        <v>61</v>
+      </c>
+      <c r="P29">
+        <v>118</v>
+      </c>
+      <c r="Q29">
         <v>33</v>
       </c>
-      <c r="O29">
-        <v>30</v>
-      </c>
-      <c r="P29">
-        <v>40</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
       <c r="R29">
-        <v>15</v>
+        <v>62.1</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>127</v>
+        <v>531</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V29">
-        <v>127</v>
+        <v>53.1</v>
       </c>
       <c r="W29">
-        <v>8.4600000000000009</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="X29">
-        <v>90</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3863,170 +3867,170 @@
         <v>38</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="AD29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE29">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="AF29">
-        <v>0.27500000000000002</v>
+        <v>0.27966101694915252</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>65.276503190499994</v>
+        <v>33.361544881355933</v>
       </c>
       <c r="AI29">
-        <v>-17.56401445825</v>
+        <v>1.191727288135592</v>
       </c>
       <c r="AJ29">
-        <v>23.856244366125001</v>
+        <v>17.276636084745761</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="G30">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H30">
-        <v>33.659999999999997</v>
+        <v>25.25</v>
       </c>
       <c r="I30">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="J30">
-        <v>142.91999999999999</v>
+        <v>146.37</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O30">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>24.2</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>304</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>50.66</v>
+      </c>
+      <c r="W30">
+        <v>12.49</v>
+      </c>
+      <c r="X30">
+        <v>24.3</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <v>9</v>
-      </c>
-      <c r="R30">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>207</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-      <c r="V30">
-        <v>69</v>
-      </c>
-      <c r="W30">
-        <v>11.39</v>
-      </c>
-      <c r="X30">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>4</v>
       </c>
       <c r="AB30" t="s">
         <v>38</v>
       </c>
       <c r="AC30">
-        <v>0.73333333333333328</v>
+        <v>0.7</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AF30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>46.699010297333317</v>
+        <v>34.708461999999997</v>
       </c>
       <c r="AI30">
-        <v>-9.7434852807500008</v>
+        <v>-3.6483099999999999</v>
       </c>
       <c r="AJ30">
-        <v>18.477762508291661</v>
+        <v>15.530075999999999</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="G31">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H31">
-        <v>21.18</v>
+        <v>9.42</v>
       </c>
       <c r="I31">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="J31">
-        <v>122.63</v>
+        <v>100</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -4035,43 +4039,43 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="R31">
-        <v>113.1</v>
+        <v>75</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>895</v>
+        <v>715</v>
       </c>
       <c r="U31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V31">
-        <v>35.799999999999997</v>
+        <v>35.75</v>
       </c>
       <c r="W31">
-        <v>7.9</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="X31">
-        <v>27.1</v>
+        <v>22.5</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -4083,248 +4087,248 @@
         <v>38</v>
       </c>
       <c r="AC31">
-        <v>0.58536585365853655</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AF31">
-        <v>0.95121951219512191</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>37.749127834804867</v>
+        <v>22.774187999999999</v>
       </c>
       <c r="AI31">
-        <v>-0.96660994973780534</v>
+        <v>7.4142000000000001</v>
       </c>
       <c r="AJ31">
-        <v>18.391258942533529</v>
+        <v>15.094194</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>11.66</v>
+      </c>
+      <c r="I32">
+        <v>71</v>
+      </c>
+      <c r="J32">
+        <v>98.59</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>18</v>
+      </c>
+      <c r="Q32">
+        <v>18</v>
+      </c>
+      <c r="R32">
+        <v>61</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>422</v>
+      </c>
+      <c r="U32">
+        <v>15</v>
+      </c>
+      <c r="V32">
+        <v>28.13</v>
+      </c>
+      <c r="W32">
+        <v>6.91</v>
+      </c>
+      <c r="X32">
+        <v>24.4</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
         <v>8</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>230</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>32.85</v>
-      </c>
-      <c r="I32">
-        <v>131</v>
-      </c>
-      <c r="J32">
-        <v>175.57</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>16</v>
-      </c>
-      <c r="O32">
-        <v>18</v>
-      </c>
-      <c r="P32">
-        <v>8</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <v>9</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>100</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>50</v>
-      </c>
-      <c r="W32">
-        <v>11.11</v>
-      </c>
-      <c r="X32">
-        <v>27</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>3</v>
       </c>
       <c r="AB32" t="s">
         <v>38</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="AD32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AF32">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="AG32">
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>44.141116984999996</v>
+        <v>22.78997133333333</v>
       </c>
       <c r="AI32">
-        <v>-7.36431303075</v>
+        <v>5.8923700000000014</v>
       </c>
       <c r="AJ32">
-        <v>18.388401977125</v>
+        <v>14.34117066666667</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="G33">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H33">
-        <v>28.33</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="I33">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="J33">
-        <v>166.66</v>
+        <v>142.91999999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q33">
+        <v>9</v>
+      </c>
+      <c r="R33">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>207</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>69</v>
+      </c>
+      <c r="W33">
+        <v>11.39</v>
+      </c>
+      <c r="X33">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <v>4</v>
-      </c>
-      <c r="R33">
-        <v>6.4</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>63</v>
-      </c>
-      <c r="U33">
-        <v>6</v>
-      </c>
-      <c r="V33">
-        <v>10.5</v>
-      </c>
-      <c r="W33">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="X33">
-        <v>6.6</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>7</v>
       </c>
       <c r="AB33" t="s">
         <v>38</v>
       </c>
       <c r="AC33">
-        <v>0.65</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE33">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AF33">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>37.142925476999999</v>
+        <v>35.648875999999987</v>
       </c>
       <c r="AI33">
-        <v>-1.274908063</v>
+        <v>-7.1278100000000002</v>
       </c>
       <c r="AJ33">
-        <v>17.934008707</v>
+        <v>14.260533000000001</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -4332,73 +4336,73 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C34">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
-        <v>222</v>
+        <v>1173</v>
       </c>
       <c r="G34">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="H34">
-        <v>22.2</v>
+        <v>24.43</v>
       </c>
       <c r="I34">
-        <v>138</v>
+        <v>868</v>
       </c>
       <c r="J34">
-        <v>160.86000000000001</v>
+        <v>135.13</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="O34">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="P34">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>29.1</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V34">
-        <v>100</v>
+        <v>76.75</v>
       </c>
       <c r="W34">
-        <v>3.5</v>
+        <v>10.52</v>
       </c>
       <c r="X34">
-        <v>100</v>
+        <v>43.7</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4407,218 +4411,218 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB34" t="s">
         <v>38</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE34">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="AF34">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AG34">
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>40.484965289999991</v>
+        <v>34.30012</v>
       </c>
       <c r="AI34">
-        <v>-13.670118215</v>
+        <v>-6.6455399999999996</v>
       </c>
       <c r="AJ34">
-        <v>13.407423537499991</v>
+        <v>13.82729</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
         <v>10</v>
       </c>
-      <c r="D35">
+      <c r="F35">
+        <v>577</v>
+      </c>
+      <c r="G35">
+        <v>37</v>
+      </c>
+      <c r="H35">
+        <v>19.23</v>
+      </c>
+      <c r="I35">
+        <v>395</v>
+      </c>
+      <c r="J35">
+        <v>146.07</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>37</v>
+      </c>
+      <c r="O35">
+        <v>36</v>
+      </c>
+      <c r="P35">
+        <v>50</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>113</v>
+      </c>
+      <c r="U35">
         <v>2</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>13</v>
-      </c>
-      <c r="G35">
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <v>13</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>216.66</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>10</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
-      </c>
-      <c r="R35">
-        <v>31</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>258</v>
-      </c>
-      <c r="U35">
-        <v>13</v>
-      </c>
       <c r="V35">
-        <v>19.84</v>
+        <v>56.5</v>
       </c>
       <c r="W35">
-        <v>8.32</v>
+        <v>12.55</v>
       </c>
       <c r="X35">
-        <v>14.3</v>
+        <v>27</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="s">
         <v>38</v>
       </c>
       <c r="AC35">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AF35">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>26.310974829999999</v>
+        <v>34.471483999999997</v>
       </c>
       <c r="AI35">
-        <v>-1.04075391225</v>
+        <v>-7.0859000000000014</v>
       </c>
       <c r="AJ35">
-        <v>12.635110458874999</v>
+        <v>13.692792000000001</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G36">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>23</v>
+        <v>23.33</v>
       </c>
       <c r="I36">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J36">
-        <v>182.53</v>
+        <v>177.21</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O36">
         <v>10</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>21</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>64.25</v>
+        <v>100</v>
       </c>
       <c r="W36">
-        <v>12.23</v>
+        <v>11.78</v>
       </c>
       <c r="X36">
-        <v>31.5</v>
+        <v>100</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4627,108 +4631,108 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB36" t="s">
         <v>38</v>
       </c>
       <c r="AC36">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF36">
-        <v>0.8</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="AG36">
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>33.296806095000001</v>
+        <v>40.174328000000003</v>
       </c>
       <c r="AI36">
-        <v>-8.996809422250001</v>
+        <v>-12.97951428571429</v>
       </c>
       <c r="AJ36">
-        <v>12.149998336375001</v>
+        <v>13.597406857142859</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>101</v>
+        <v>1156</v>
       </c>
       <c r="G37">
+        <v>84</v>
+      </c>
+      <c r="H37">
+        <v>39.86</v>
+      </c>
+      <c r="I37">
+        <v>790</v>
+      </c>
+      <c r="J37">
+        <v>146.32</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>90</v>
+      </c>
+      <c r="O37">
         <v>58</v>
       </c>
-      <c r="H37">
-        <v>25.25</v>
-      </c>
-      <c r="I37">
-        <v>69</v>
-      </c>
-      <c r="J37">
-        <v>146.37</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>6</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
       <c r="P37">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>24.2</v>
+        <v>3.4</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="U37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>50.66</v>
+        <v>100</v>
       </c>
       <c r="W37">
-        <v>12.49</v>
+        <v>7.63</v>
       </c>
       <c r="X37">
-        <v>24.3</v>
+        <v>100</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4737,108 +4741,108 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB37" t="s">
         <v>38</v>
       </c>
       <c r="AC37">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE37">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0.10526315789473679</v>
       </c>
       <c r="AG37">
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>28.059050214999999</v>
+        <v>39.381475999999999</v>
       </c>
       <c r="AI37">
-        <v>-6.8388502227500014</v>
+        <v>-12.46532631578947</v>
       </c>
       <c r="AJ37">
-        <v>10.610099996124999</v>
+        <v>13.45807484210526</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="G38">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>23.33</v>
+        <v>5.5</v>
       </c>
       <c r="I38">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="J38">
-        <v>177.21</v>
+        <v>137.5</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
         <v>2</v>
       </c>
-      <c r="N38">
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
         <v>12</v>
       </c>
-      <c r="O38">
-        <v>10</v>
-      </c>
-      <c r="P38">
-        <v>7</v>
-      </c>
-      <c r="Q38">
-        <v>3</v>
-      </c>
-      <c r="R38">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V38">
-        <v>100</v>
+        <v>30.5</v>
       </c>
       <c r="W38">
-        <v>11.78</v>
+        <v>10.16</v>
       </c>
       <c r="X38">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -4847,66 +4851,66 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="s">
         <v>38</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AF38">
-        <v>0.42857142857142849</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>34.932578036999999</v>
+        <v>28.590039999999998</v>
       </c>
       <c r="AI38">
-        <v>-14.493792335285709</v>
+        <v>-2.6606999999999998</v>
       </c>
       <c r="AJ38">
-        <v>10.21939285085714</v>
+        <v>12.96467</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39">
-        <v>11.66</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J39">
-        <v>98.59</v>
+        <v>111.11</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4915,40 +4919,40 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R39">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="U39">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="V39">
-        <v>28.13</v>
+        <v>55.62</v>
       </c>
       <c r="W39">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="X39">
-        <v>24.4</v>
+        <v>48.7</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4963,13 +4967,13 @@
         <v>38</v>
       </c>
       <c r="AC39">
-        <v>0.61111111111111116</v>
+        <v>0.25</v>
       </c>
       <c r="AD39">
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4978,131 +4982,131 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>18.66014974677778</v>
+        <v>24.267430999999998</v>
       </c>
       <c r="AI39">
-        <v>-1.677586170000001</v>
+        <v>0.95020999999999955</v>
       </c>
       <c r="AJ39">
-        <v>8.4912817883888874</v>
+        <v>12.6088205</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="G40">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="H40">
-        <v>9.42</v>
+        <v>22.2</v>
       </c>
       <c r="I40">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="J40">
+        <v>160.86000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>22</v>
+      </c>
+      <c r="O40">
+        <v>12</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
         <v>100</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="W40">
+        <v>3.5</v>
+      </c>
+      <c r="X40">
+        <v>100</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
         <v>2</v>
-      </c>
-      <c r="N40">
-        <v>5</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-      <c r="P40">
-        <v>21</v>
-      </c>
-      <c r="Q40">
-        <v>21</v>
-      </c>
-      <c r="R40">
-        <v>75</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>715</v>
-      </c>
-      <c r="U40">
-        <v>20</v>
-      </c>
-      <c r="V40">
-        <v>35.75</v>
-      </c>
-      <c r="W40">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="X40">
-        <v>22.5</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>8</v>
       </c>
       <c r="AB40" t="s">
         <v>38</v>
       </c>
       <c r="AC40">
-        <v>0.61904761904761907</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AG40">
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>18.32644398133333</v>
+        <v>36.58163600000001</v>
       </c>
       <c r="AI40">
-        <v>-2.03957436475</v>
+        <v>-11.913</v>
       </c>
       <c r="AJ40">
-        <v>8.1434348082916657</v>
+        <v>12.33431800000001</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>14</v>
@@ -5198,24 +5202,24 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>18.386839235</v>
+        <v>25.241797999999999</v>
       </c>
       <c r="AI41">
-        <v>-4.1412045772499999</v>
+        <v>-0.65167000000000042</v>
       </c>
       <c r="AJ41">
-        <v>7.1228173288749996</v>
+        <v>12.295064</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -5224,19 +5228,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="I42">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J42">
-        <v>137.5</v>
+        <v>127.27</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -5245,40 +5249,40 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42">
         <v>2</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R42">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="U42">
         <v>4</v>
       </c>
       <c r="V42">
-        <v>30.5</v>
+        <v>46.5</v>
       </c>
       <c r="W42">
-        <v>10.16</v>
+        <v>8.85</v>
       </c>
       <c r="X42">
-        <v>18</v>
+        <v>31.5</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -5287,19 +5291,19 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB42" t="s">
         <v>38</v>
       </c>
       <c r="AC42">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -5308,45 +5312,45 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>17.648736629999998</v>
+        <v>27.483892000000001</v>
       </c>
       <c r="AI42">
-        <v>-4.2789721520000006</v>
+        <v>-3.4905499999999998</v>
       </c>
       <c r="AJ42">
-        <v>6.6848822390000002</v>
+        <v>11.996670999999999</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H43">
-        <v>10.5</v>
+        <v>8.66</v>
       </c>
       <c r="I43">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J43">
-        <v>127.27</v>
+        <v>108.33</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5355,40 +5359,40 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R43">
-        <v>21</v>
+        <v>22.4</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="U43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43">
-        <v>46.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="W43">
-        <v>8.85</v>
+        <v>8.42</v>
       </c>
       <c r="X43">
-        <v>31.5</v>
+        <v>27.2</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -5397,176 +5401,176 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="s">
         <v>38</v>
       </c>
       <c r="AC43">
-        <v>0.5714285714285714</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AG43">
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>18.739906094999998</v>
+        <v>23.763873818181821</v>
       </c>
       <c r="AI43">
-        <v>-6.2762007587499991</v>
+        <v>-2.0668763636363638</v>
       </c>
       <c r="AJ43">
-        <v>6.2318526681249997</v>
+        <v>10.84849872727273</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>553</v>
+      </c>
+      <c r="G44">
+        <v>58</v>
+      </c>
+      <c r="H44">
+        <v>19.75</v>
+      </c>
+      <c r="I44">
+        <v>391</v>
+      </c>
+      <c r="J44">
+        <v>141.43</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>35</v>
+      </c>
+      <c r="O44">
+        <v>37</v>
+      </c>
+      <c r="P44">
+        <v>40</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>15</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>100</v>
+      </c>
+      <c r="W44">
+        <v>7.5</v>
+      </c>
+      <c r="X44">
+        <v>100</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
         <v>6</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>26</v>
-      </c>
-      <c r="G44">
-        <v>13</v>
-      </c>
-      <c r="H44">
-        <v>8.66</v>
-      </c>
-      <c r="I44">
-        <v>24</v>
-      </c>
-      <c r="J44">
-        <v>108.33</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>11</v>
-      </c>
-      <c r="Q44">
-        <v>9</v>
-      </c>
-      <c r="R44">
-        <v>22.4</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>191</v>
-      </c>
-      <c r="U44">
-        <v>5</v>
-      </c>
-      <c r="V44">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="W44">
-        <v>8.42</v>
-      </c>
-      <c r="X44">
-        <v>27.2</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>9</v>
       </c>
       <c r="AB44" t="s">
         <v>38</v>
       </c>
       <c r="AC44">
-        <v>0.54545454545454541</v>
+        <v>0.95</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AF44">
-        <v>0.81818181818181823</v>
+        <v>0.05</v>
       </c>
       <c r="AG44">
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>15.332617590818179</v>
+        <v>33.847513000000014</v>
       </c>
       <c r="AI44">
-        <v>-4.9697490995454547</v>
+        <v>-12.58075</v>
       </c>
       <c r="AJ44">
-        <v>5.1814342456363613</v>
+        <v>10.6333815</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J45">
-        <v>111.11</v>
+        <v>100</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5575,40 +5579,40 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R45">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="U45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V45">
-        <v>55.62</v>
+        <v>24.66</v>
       </c>
       <c r="W45">
-        <v>6.84</v>
+        <v>10.57</v>
       </c>
       <c r="X45">
-        <v>48.7</v>
+        <v>14</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -5617,19 +5621,19 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB45" t="s">
         <v>38</v>
       </c>
       <c r="AC45">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -5638,87 +5642,87 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>16.745727810000002</v>
+        <v>21.097300000000001</v>
       </c>
       <c r="AI45">
-        <v>-6.5799814892500006</v>
+        <v>-1.2619</v>
       </c>
       <c r="AJ45">
-        <v>5.0828731603750006</v>
+        <v>9.9177</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46">
         <v>6</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
-        <v>12</v>
+        <v>527</v>
       </c>
       <c r="G46">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="I46">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>141.28</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P46">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="U46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>24.66</v>
+        <v>127</v>
       </c>
       <c r="W46">
-        <v>10.57</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="X46">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -5727,42 +5731,42 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB46" t="s">
         <v>38</v>
       </c>
       <c r="AC46">
-        <v>0.33333333333333331</v>
+        <v>0.875</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="AF46">
-        <v>1</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AG46">
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>12.59288823333333</v>
+        <v>32.819638500000003</v>
       </c>
       <c r="AI46">
-        <v>-3.1874902084999999</v>
+        <v>-14.315725</v>
       </c>
       <c r="AJ46">
-        <v>4.7026990124166668</v>
+        <v>9.2519567500000015</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>12</v>
@@ -5858,21 +5862,21 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>9.9949527183333338</v>
+        <v>14.865710999999999</v>
       </c>
       <c r="AI47">
-        <v>-7.5689484758333352</v>
+        <v>-3.7056166666666668</v>
       </c>
       <c r="AJ47">
-        <v>1.2130021212499991</v>
+        <v>5.5800471666666649</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5968,18 +5972,18 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>12.124757015</v>
+        <v>18.477274000000001</v>
       </c>
       <c r="AI48">
-        <v>-12.6767420065</v>
+        <v>-10.3544</v>
       </c>
       <c r="AJ48">
-        <v>-0.27599249575000062</v>
+        <v>4.0614370000000006</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ49">
-    <sortCondition descending="1" ref="AJ1:AJ49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ48">
+    <sortCondition descending="1" ref="AJ1:AJ48"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
